--- a/data/expt_2/raw_transcripts/game81.xlsx
+++ b/data/expt_2/raw_transcripts/game81.xlsx
@@ -1,61 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="MVI_0099.MP4.csv" sheetId="1" r:id="rId4"/>
+    <sheet name="MVI_0099.MP4.csv" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="185">
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>trial</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>echo</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>Next to the camera.</t>
-  </si>
-  <si>
-    <t>id150</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="187">
+  <si>
+    <t xml:space="preserve">start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next to the camera.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id150</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, that's just, that's how I see the video.</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Yeah.</t>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeah.</t>
   </si>
   <si>
     <t xml:space="preserve"> Alright, now if you ever want to leave the game, we'll just let me know, okay?</t>
   </si>
   <si>
-    <t>What is it stuff before?</t>
+    <t xml:space="preserve">What is it stuff before?</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, so today we're going to be playing a matching game.</t>
@@ -64,31 +73,31 @@
     <t xml:space="preserve"> But before we start, we're going to get to just touching our iPad to playing a game with popping bubbles.</t>
   </si>
   <si>
-    <t>So you can just press the blue button on your screen and then pop all the bubbles you see.</t>
-  </si>
-  <si>
-    <t>So you can tap the button.</t>
+    <t xml:space="preserve">So you can just press the blue button on your screen and then pop all the bubbles you see.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So you can tap the button.</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, yeah, and pop all the bubbles.</t>
   </si>
   <si>
-    <t>I popped all.</t>
-  </si>
-  <si>
-    <t>id149</t>
+    <t xml:space="preserve">I popped all.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id149</t>
   </si>
   <si>
     <t xml:space="preserve"> Yeah, you can pop the yellow ones too.</t>
   </si>
   <si>
-    <t>Pop all.</t>
-  </si>
-  <si>
-    <t>You can pop the yellow ones too.</t>
-  </si>
-  <si>
-    <t>Great job guys.</t>
+    <t xml:space="preserve">Pop all.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can pop the yellow ones too.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great job guys.</t>
   </si>
   <si>
     <t xml:space="preserve"> Yay, thank you so much.</t>
@@ -97,22 +106,22 @@
     <t xml:space="preserve"> Alright, now I can explain the matching game.</t>
   </si>
   <si>
-    <t>This is my friend Smurphy.</t>
-  </si>
-  <si>
-    <t>Do you guys want to say hi Smurphy?</t>
-  </si>
-  <si>
-    <t>Do you want to say Hi?</t>
-  </si>
-  <si>
-    <t>Hi</t>
-  </si>
-  <si>
-    <t>He says hi back.</t>
-  </si>
-  <si>
-    <t>Alright. Now on your screens you each go out to see two pictures. It's Murphy's job to guess which</t>
+    <t xml:space="preserve">This is my friend Smurphy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you guys want to say hi Smurphy?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you want to say Hi?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He says hi back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alright. Now on your screens you each go out to see two pictures. It's Murphy's job to guess which</t>
   </si>
   <si>
     <t xml:space="preserve"> picture is inside of the black box and he needs your help. Now if you have the black box,</t>
@@ -145,31 +154,31 @@
     <t xml:space="preserve"> Now, just to recap, if you see the black box, what are you?</t>
   </si>
   <si>
-    <t>The runner?</t>
+    <t xml:space="preserve">The runner?</t>
   </si>
   <si>
     <t xml:space="preserve"> No, if you see the black box, you're the teller.</t>
   </si>
   <si>
-    <t>So you're telling the other person that you see inside the black box.</t>
-  </si>
-  <si>
-    <t>And then if you don't have the black box.</t>
-  </si>
-  <si>
-    <t>That's the guesser.</t>
+    <t xml:space="preserve">So you're telling the other person that you see inside the black box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And then if you don't have the black box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That's the guesser.</t>
   </si>
   <si>
     <t xml:space="preserve"> Exactly, you're the guesser and you're guessing for Smurphy to help you guess which</t>
   </si>
   <si>
-    <t>one is the box.</t>
+    <t xml:space="preserve">one is the box.</t>
   </si>
   <si>
     <t xml:space="preserve"> Alright, so you guys got it.</t>
   </si>
   <si>
-    <t>Now you can press the blue buttons and begin.</t>
+    <t xml:space="preserve">Now you can press the blue buttons and begin.</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, okay.</t>
@@ -181,31 +190,31 @@
     <t xml:space="preserve"> Just wait a little bit a second, [id150].</t>
   </si>
   <si>
-    <t>Just wait a little bit.</t>
-  </si>
-  <si>
-    <t>Just wait a little second.</t>
-  </si>
-  <si>
-    <t>We had to do it again.</t>
-  </si>
-  <si>
-    <t>What's gonna happen?</t>
+    <t xml:space="preserve">Just wait a little bit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just wait a little second.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had to do it again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's gonna happen?</t>
   </si>
   <si>
     <t xml:space="preserve"> So once this is done loading, you guys are both going to see the pictures and then you can help each other guess.</t>
   </si>
   <si>
-    <t>Just got to wait a little bit.</t>
-  </si>
-  <si>
-    <t>Thank you guys for being patient. I really appreciate it.</t>
-  </si>
-  <si>
-    <t>I'm really excited for you guys to play.</t>
-  </si>
-  <si>
-    <t>Hopefully you guys will get it.</t>
+    <t xml:space="preserve">Just got to wait a little bit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank you guys for being patient. I really appreciate it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm really excited for you guys to play.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hopefully you guys will get it.</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, that's for another game, I'm not sure.</t>
@@ -217,10 +226,10 @@
     <t xml:space="preserve"> Okay, now you press the blue button.</t>
   </si>
   <si>
-    <t>Great job. So who has the black box?</t>
-  </si>
-  <si>
-    <t>S</t>
+    <t xml:space="preserve">Great job. So who has the black box?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
   </si>
   <si>
     <t xml:space="preserve"> You have black box? Okay, so that means you're telling and you're going to guess.</t>
@@ -229,106 +238,106 @@
     <t xml:space="preserve"> Do you want to tell [id150] what you see in the black box, [id149]?</t>
   </si>
   <si>
-    <t>Apple!</t>
-  </si>
-  <si>
-    <t>Apple</t>
+    <t xml:space="preserve">Apple!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, so do you want to guess that, [id150]?</t>
   </si>
   <si>
-    <t>Uh.. uh</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>What do you guess?</t>
-  </si>
-  <si>
-    <t>Did you hear what [id149] told you?</t>
-  </si>
-  <si>
-    <t>So a banana?</t>
+    <t xml:space="preserve">Uh.. uh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do you guess?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did you hear what [id149] told you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So a banana?</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, do you want to say it again?</t>
   </si>
   <si>
-    <t>Apple.</t>
-  </si>
-  <si>
-    <t>Uh  say apple?</t>
-  </si>
-  <si>
-    <t>So do you want to guess that by tapping it on your screen?</t>
-  </si>
-  <si>
-    <t>Okay.</t>
-  </si>
-  <si>
-    <t>Great job.</t>
-  </si>
-  <si>
-    <t>I got a smile face.</t>
+    <t xml:space="preserve">Apple.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uh  say apple?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So do you want to guess that by tapping it on your screen?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great job.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I got a smile face.</t>
   </si>
   <si>
     <t xml:space="preserve"> Exactly, you got it right.</t>
   </si>
   <si>
-    <t>So now you can say [id149] what you see in the black box.</t>
-  </si>
-  <si>
-    <t>A dog.</t>
-  </si>
-  <si>
-    <t>A dog</t>
-  </si>
-  <si>
-    <t>No I'm the guesser.</t>
+    <t xml:space="preserve">So now you can say [id149] what you see in the black box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dog.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No I'm the guesser.</t>
   </si>
   <si>
     <t xml:space="preserve"> Yeah, so [id150] told you so then you guess.</t>
   </si>
   <si>
-    <t>The dog</t>
-  </si>
-  <si>
-    <t>So I have smiling face too.</t>
+    <t xml:space="preserve">The dog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So I have smiling face too.</t>
   </si>
   <si>
     <t xml:space="preserve"> Yeah, we switch turns.</t>
   </si>
   <si>
-    <t>I have house. I remember</t>
-  </si>
-  <si>
-    <t>House!</t>
-  </si>
-  <si>
-    <t>House</t>
-  </si>
-  <si>
-    <t>Why is it keeping that noise?</t>
-  </si>
-  <si>
-    <t>Because you're getting it right.</t>
-  </si>
-  <si>
-    <t>Duck.</t>
-  </si>
-  <si>
-    <t>Duck</t>
-  </si>
-  <si>
-    <t>Nice job.</t>
+    <t xml:space="preserve">I have house. I remember</t>
+  </si>
+  <si>
+    <t xml:space="preserve">House!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">House</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why is it keeping that noise?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because you're getting it right.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duck.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice job.</t>
   </si>
   <si>
     <t xml:space="preserve"> Why's it taking so long?</t>
   </si>
   <si>
-    <t>[id149]'s just needs some time.</t>
+    <t xml:space="preserve">[id149]'s just needs some time.</t>
   </si>
   <si>
     <t xml:space="preserve"> Do you want to say, [id150], what you see in the black box, [id149]?</t>
@@ -340,19 +349,19 @@
     <t xml:space="preserve"> Oh, I can't help you, but you can</t>
   </si>
   <si>
-    <t>Just try your best to say whatever you see.</t>
-  </si>
-  <si>
-    <t>A diamond.</t>
-  </si>
-  <si>
-    <t>A diamond</t>
-  </si>
-  <si>
-    <t>What is the diamond?</t>
-  </si>
-  <si>
-    <t>Which one is he talking about?</t>
+    <t xml:space="preserve">Just try your best to say whatever you see.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A diamond.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A diamond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the diamond?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which one is he talking about?</t>
   </si>
   <si>
     <t xml:space="preserve"> I can't help you, but you can just guess whichever one you think it is.</t>
@@ -361,25 +370,25 @@
     <t xml:space="preserve"> Uh, this one?</t>
   </si>
   <si>
-    <t>Yay!</t>
-  </si>
-  <si>
-    <t>T</t>
+    <t xml:space="preserve">Yay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
   </si>
   <si>
     <t xml:space="preserve"> Great job, that was right.</t>
   </si>
   <si>
-    <t>What is this one?</t>
-  </si>
-  <si>
-    <t>I can't tell you what it is</t>
-  </si>
-  <si>
-    <t>Is it an airplane?</t>
-  </si>
-  <si>
-    <t>An airplane</t>
+    <t xml:space="preserve">What is this one?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can't tell you what it is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it an airplane?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An airplane</t>
   </si>
   <si>
     <t xml:space="preserve"> You can use that! Okay, did you hear what [id150] said?</t>
@@ -388,121 +397,121 @@
     <t xml:space="preserve"> Yeah, airplane.</t>
   </si>
   <si>
-    <t>So do you want to guess that?</t>
-  </si>
-  <si>
-    <t>Why does it keep switch onto other stuff?</t>
-  </si>
-  <si>
-    <t>Because Smurphy needs help guessing a lot of pictures.</t>
-  </si>
-  <si>
-    <t>A falcon!</t>
-  </si>
-  <si>
-    <t>A falcon</t>
-  </si>
-  <si>
-    <t>What is a falcon?</t>
-  </si>
-  <si>
-    <t>The black box one.</t>
-  </si>
-  <si>
-    <t>You can just try your best to guess based off what [id149] told you.</t>
-  </si>
-  <si>
-    <t>A human.</t>
-  </si>
-  <si>
-    <t>A human</t>
-  </si>
-  <si>
-    <t>Why does it make, says more woos?</t>
-  </si>
-  <si>
-    <t>Because you guys are getting it right.</t>
-  </si>
-  <si>
-    <t>Um...</t>
-  </si>
-  <si>
-    <t>Falcon again!</t>
-  </si>
-  <si>
-    <t>Falcon</t>
-  </si>
-  <si>
-    <t>Great job. Smurphy's so happy.</t>
-  </si>
-  <si>
-    <t>Why is it a falcon?</t>
-  </si>
-  <si>
-    <t>That's just what [id149] said</t>
-  </si>
-  <si>
-    <t>Why does he have to even more?</t>
-  </si>
-  <si>
-    <t>A diamond again.</t>
-  </si>
-  <si>
-    <t>A Airplane.</t>
-  </si>
-  <si>
-    <t>Nice.</t>
-  </si>
-  <si>
-    <t>Human.</t>
-  </si>
-  <si>
-    <t>Human</t>
-  </si>
-  <si>
-    <t>I hear my brothers already here</t>
-  </si>
-  <si>
-    <t>The human.</t>
-  </si>
-  <si>
-    <t>The human</t>
-  </si>
-  <si>
-    <t>I see my aunt.</t>
-  </si>
-  <si>
-    <t>Oh wow.</t>
+    <t xml:space="preserve">So do you want to guess that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why does it keep switch onto other stuff?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because Smurphy needs help guessing a lot of pictures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A falcon!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A falcon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is a falcon?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The black box one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can just try your best to guess based off what [id149] told you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A human.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A human</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why does it make, says more woos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because you guys are getting it right.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falcon again!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falcon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great job. Smurphy's so happy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why is it a falcon?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That's just what [id149] said</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why does he have to even more?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A diamond again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Airplane.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I hear my brothers already here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The human.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The human</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see my aunt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh wow.</t>
   </si>
   <si>
     <t xml:space="preserve"> Um, airplane.</t>
   </si>
   <si>
-    <t>Airplane</t>
-  </si>
-  <si>
-    <t>Nice job!</t>
-  </si>
-  <si>
-    <t>This is fun</t>
-  </si>
-  <si>
-    <t>Is it your voice?</t>
+    <t xml:space="preserve">Airplane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice job!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is fun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it your voice?</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh it's not my voice, it's just a game, but do you want to tell [id149] what you see in the black box?</t>
   </si>
   <si>
-    <t>Uh</t>
-  </si>
-  <si>
-    <t>Aw.</t>
+    <t xml:space="preserve">Uh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aw.</t>
   </si>
   <si>
     <t xml:space="preserve"> That's okay, we can try again.</t>
   </si>
   <si>
-    <t>What happened?</t>
+    <t xml:space="preserve">What happened?</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, that one was wrong, but it's okay.</t>
@@ -511,78 +520,105 @@
     <t xml:space="preserve"> Um, human.</t>
   </si>
   <si>
-    <t>There's two humans.</t>
-  </si>
-  <si>
-    <t>Any one you want.</t>
+    <t xml:space="preserve">human</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There's two humans.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any one you want.</t>
   </si>
   <si>
     <t xml:space="preserve"> Um, it looks like a superhero human.</t>
   </si>
   <si>
-    <t>A superhero human</t>
+    <t xml:space="preserve">A superhero human</t>
   </si>
   <si>
     <t xml:space="preserve"> Good job, [id150].</t>
   </si>
   <si>
-    <t>Nice job</t>
-  </si>
-  <si>
-    <t>Why do you keep have to passing it?</t>
-  </si>
-  <si>
-    <t>So that you can guess for Smurphy</t>
-  </si>
-  <si>
-    <t>Human!</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>Which one?</t>
+    <t xml:space="preserve">Nice job</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why do you keep have to passing it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So that you can guess for Smurphy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a human</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which one?</t>
   </si>
   <si>
     <t xml:space="preserve"> Uh, the one that is walking.</t>
   </si>
   <si>
-    <t>A human walking</t>
+    <t xml:space="preserve">the one that is walking</t>
   </si>
   <si>
     <t xml:space="preserve"> Great job, guys.</t>
   </si>
   <si>
-    <t>You finished the game.</t>
-  </si>
-  <si>
-    <t>Thank you so much. We can just go back to the classroom. That was it.</t>
+    <t xml:space="preserve">You finished the game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank you so much. We can just go back to the classroom. That was it.</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, I'm just going to stop the recording.</t>
   </si>
   <si>
-    <t>Teacher?</t>
-  </si>
-  <si>
-    <t>Yeah?</t>
+    <t xml:space="preserve">Teacher?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeah?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -590,32 +626,66 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -626,94 +696,90 @@
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4285f4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ea4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="fbbc04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="34a853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="ff6d01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="46bdc6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -721,33 +787,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -760,13 +817,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -776,15 +827,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -792,7 +841,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -800,11 +848,11 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -813,26 +861,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:H182"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="H176" activeCellId="0" sqref="H176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="50.5"/>
-    <col customWidth="1" min="4" max="4" width="15.38"/>
-    <col customWidth="1" min="5" max="5" width="4.88"/>
-    <col customWidth="1" min="6" max="6" width="16.25"/>
-    <col customWidth="1" min="8" max="8" width="39.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="50.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="39.51"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -858,12 +908,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2000.0</v>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>2000</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -872,12 +922,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>2000.0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>6000.0</v>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>6000</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -886,12 +936,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>6000.0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>7000.0</v>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>6000</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>7000</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -900,12 +950,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>7000.0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>10000.0</v>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>7000</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>10000</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -914,12 +964,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>10000.0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>12000.0</v>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>12000</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -928,12 +978,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>12000.0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>16000.0</v>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>12000</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>16000</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -942,12 +992,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>16000.0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>21000.0</v>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>16000</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>21000</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -956,12 +1006,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>21000.0</v>
-      </c>
-      <c r="B9" s="1">
-        <v>25000.0</v>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>21000</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>25000</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -970,12 +1020,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>25000.0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>27000.0</v>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>25000</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>27000</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
@@ -984,12 +1034,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>27000.0</v>
-      </c>
-      <c r="B11" s="1">
-        <v>30000.0</v>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>27000</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>30000</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
@@ -998,12 +1048,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>30000.0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>32000.0</v>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>32000</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>20</v>
@@ -1012,12 +1062,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>32000.0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>34000.0</v>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>32000</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>34000</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>22</v>
@@ -1026,12 +1076,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>34000.0</v>
-      </c>
-      <c r="B14" s="1">
-        <v>35000.0</v>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>34000</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>35000</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>23</v>
@@ -1040,12 +1090,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>35000.0</v>
-      </c>
-      <c r="B15" s="1">
-        <v>37000.0</v>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>35000</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>37000</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>24</v>
@@ -1054,12 +1104,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>37000.0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>41000.0</v>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>37000</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>41000</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>25</v>
@@ -1068,12 +1118,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>41000.0</v>
-      </c>
-      <c r="B17" s="1">
-        <v>44000.0</v>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>41000</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>44000</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>26</v>
@@ -1082,12 +1132,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>44000.0</v>
-      </c>
-      <c r="B18" s="1">
-        <v>48000.0</v>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>44000</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>48000</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>27</v>
@@ -1096,12 +1146,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>48000.0</v>
-      </c>
-      <c r="B19" s="1">
-        <v>50000.0</v>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>48000</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>50000</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>28</v>
@@ -1110,12 +1160,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>50000.0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>52000.0</v>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>50000</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>52000</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>29</v>
@@ -1124,12 +1174,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>52000.0</v>
-      </c>
-      <c r="B21" s="1">
-        <v>53000.0</v>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>52000</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>53000</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>30</v>
@@ -1138,12 +1188,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>53000.0</v>
-      </c>
-      <c r="B22" s="1">
-        <v>54000.0</v>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>53000</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>54000</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>31</v>
@@ -1152,12 +1202,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>55000.0</v>
-      </c>
-      <c r="B23" s="1">
-        <v>61000.0</v>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>55000</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>61000</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -1166,12 +1216,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>61000.0</v>
-      </c>
-      <c r="B24" s="1">
-        <v>68680.0</v>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>61000</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>68680</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>33</v>
@@ -1180,12 +1230,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>68680.0</v>
-      </c>
-      <c r="B25" s="1">
-        <v>74680.0</v>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>68680</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>74680</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>34</v>
@@ -1194,12 +1244,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>74680.0</v>
-      </c>
-      <c r="B26" s="1">
-        <v>84840.0</v>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>74680</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>84840</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>35</v>
@@ -1208,12 +1258,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>84840.0</v>
-      </c>
-      <c r="B27" s="1">
-        <v>102840.0</v>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>84840</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>102840</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>36</v>
@@ -1222,12 +1272,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <v>102840.0</v>
-      </c>
-      <c r="B28" s="1">
-        <v>107840.0</v>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>102840</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>107840</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>37</v>
@@ -1236,12 +1286,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1">
-        <v>107840.0</v>
-      </c>
-      <c r="B29" s="1">
-        <v>113840.0</v>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>107840</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>113840</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>38</v>
@@ -1250,12 +1300,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1">
-        <v>113840.0</v>
-      </c>
-      <c r="B30" s="1">
-        <v>121580.0</v>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>113840</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>121580</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>39</v>
@@ -1264,12 +1314,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1">
-        <v>122420.0</v>
-      </c>
-      <c r="B31" s="1">
-        <v>126220.0</v>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>122420</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>126220</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>40</v>
@@ -1278,12 +1328,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1">
-        <v>126720.0</v>
-      </c>
-      <c r="B32" s="1">
-        <v>129580.0</v>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>126720</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>129580</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>41</v>
@@ -1292,12 +1342,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1">
-        <v>129960.0</v>
-      </c>
-      <c r="B33" s="1">
-        <v>133160.0</v>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>129960</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>133160</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>42</v>
@@ -1306,12 +1356,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1">
-        <v>134080.0</v>
-      </c>
-      <c r="B34" s="1">
-        <v>137460.0</v>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>134080</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>137460</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>43</v>
@@ -1320,12 +1370,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1">
-        <v>134080.0</v>
-      </c>
-      <c r="B35" s="1">
-        <v>137460.0</v>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>134080</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>137460</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>44</v>
@@ -1334,12 +1384,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1">
-        <v>137460.0</v>
-      </c>
-      <c r="B36" s="1">
-        <v>141760.0</v>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>137460</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>141760</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>45</v>
@@ -1348,12 +1398,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1">
-        <v>141760.0</v>
-      </c>
-      <c r="B37" s="1">
-        <v>145800.0</v>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>141760</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>145800</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>46</v>
@@ -1362,12 +1412,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1">
-        <v>145800.0</v>
-      </c>
-      <c r="B38" s="1">
-        <v>147900.0</v>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>145800</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>147900</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>47</v>
@@ -1376,12 +1426,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1">
-        <v>147900.0</v>
-      </c>
-      <c r="B39" s="1">
-        <v>148900.0</v>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>147900</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>148900</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>48</v>
@@ -1390,12 +1440,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1">
-        <v>148900.0</v>
-      </c>
-      <c r="B40" s="1">
-        <v>151420.0</v>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>148900</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>151420</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>49</v>
@@ -1404,12 +1454,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1">
-        <v>151420.0</v>
-      </c>
-      <c r="B41" s="1">
-        <v>153140.0</v>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>151420</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>153140</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>50</v>
@@ -1418,12 +1468,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1">
-        <v>153140.0</v>
-      </c>
-      <c r="B42" s="1">
-        <v>155640.0</v>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>153140</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>155640</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>51</v>
@@ -1432,12 +1482,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1">
-        <v>155640.0</v>
-      </c>
-      <c r="B43" s="1">
-        <v>158340.0</v>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>155640</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>158340</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>52</v>
@@ -1446,12 +1496,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1">
-        <v>158340.0</v>
-      </c>
-      <c r="B44" s="1">
-        <v>161220.0</v>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>158340</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>161220</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>53</v>
@@ -1460,12 +1510,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1">
-        <v>161220.0</v>
-      </c>
-      <c r="B45" s="1">
-        <v>164220.0</v>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>161220</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>164220</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>54</v>
@@ -1474,12 +1524,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1">
-        <v>164220.0</v>
-      </c>
-      <c r="B46" s="1">
-        <v>171220.0</v>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>164220</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>171220</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>55</v>
@@ -1488,12 +1538,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1">
-        <v>171220.0</v>
-      </c>
-      <c r="B47" s="1">
-        <v>174220.0</v>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>171220</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>174220</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>56</v>
@@ -1502,12 +1552,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1">
-        <v>174220.0</v>
-      </c>
-      <c r="B48" s="1">
-        <v>177220.0</v>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>174220</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>177220</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>57</v>
@@ -1516,12 +1566,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1">
-        <v>177220.0</v>
-      </c>
-      <c r="B49" s="1">
-        <v>179220.0</v>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>177220</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>179220</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>58</v>
@@ -1530,12 +1580,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1">
-        <v>179220.0</v>
-      </c>
-      <c r="B50" s="1">
-        <v>183220.0</v>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>179220</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>183220</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>59</v>
@@ -1544,12 +1594,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1">
-        <v>183220.0</v>
-      </c>
-      <c r="B51" s="1">
-        <v>187220.0</v>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>183220</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>187220</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>60</v>
@@ -1558,12 +1608,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1">
-        <v>187220.0</v>
-      </c>
-      <c r="B52" s="1">
-        <v>191220.0</v>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>187220</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>191220</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>61</v>
@@ -1572,12 +1622,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1">
-        <v>191220.0</v>
-      </c>
-      <c r="B53" s="1">
-        <v>193220.0</v>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>191220</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>193220</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>62</v>
@@ -1586,12 +1636,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1">
-        <v>193220.0</v>
-      </c>
-      <c r="B54" s="1">
-        <v>195220.0</v>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>193220</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>195220</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>63</v>
@@ -1600,12 +1650,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1">
-        <v>195220.0</v>
-      </c>
-      <c r="B55" s="1">
-        <v>197220.0</v>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>195220</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>197220</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>64</v>
@@ -1614,12 +1664,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1">
-        <v>197220.0</v>
-      </c>
-      <c r="B56" s="1">
-        <v>200220.0</v>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>197220</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>200220</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>65</v>
@@ -1628,12 +1678,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1">
-        <v>200220.0</v>
-      </c>
-      <c r="B57" s="1">
-        <v>203220.0</v>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>200220</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>203220</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>66</v>
@@ -1642,12 +1692,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1">
-        <v>203220.0</v>
-      </c>
-      <c r="B58" s="1">
-        <v>208220.0</v>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>203220</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>208220</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>67</v>
@@ -1656,12 +1706,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1">
-        <v>208220.0</v>
-      </c>
-      <c r="B59" s="1">
-        <v>212220.0</v>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>208220</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>212220</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>68</v>
@@ -1669,16 +1719,16 @@
       <c r="D59" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1">
-        <v>212220.0</v>
-      </c>
-      <c r="B60" s="1">
-        <v>213220.0</v>
+      <c r="E59" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>212220</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>213220</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>12</v>
@@ -1690,12 +1740,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1">
-        <v>213220.0</v>
-      </c>
-      <c r="B61" s="1">
-        <v>216220.0</v>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>213220</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>216220</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>70</v>
@@ -1704,12 +1754,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1">
-        <v>216220.0</v>
-      </c>
-      <c r="B62" s="1">
-        <v>219220.0</v>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>216220</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>219220</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>71</v>
@@ -1718,12 +1768,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1">
-        <v>219220.0</v>
-      </c>
-      <c r="B63" s="1">
-        <v>221220.0</v>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>219220</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>221220</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>72</v>
@@ -1738,12 +1788,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1">
-        <v>221220.0</v>
-      </c>
-      <c r="B64" s="1">
-        <v>222720.0</v>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>221220</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>222720</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>74</v>
@@ -1752,12 +1802,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1">
-        <v>223220.0</v>
-      </c>
-      <c r="B65" s="1">
-        <v>223320.0</v>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>223220</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>223320</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>75</v>
@@ -1769,12 +1819,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1">
-        <v>225360.0</v>
-      </c>
-      <c r="B66" s="1">
-        <v>227200.0</v>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>225360</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>227200</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>77</v>
@@ -1786,12 +1836,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1">
-        <v>227500.0</v>
-      </c>
-      <c r="B67" s="1">
-        <v>228680.0</v>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>227500</v>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>228680</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>78</v>
@@ -1800,12 +1850,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1">
-        <v>231060.0</v>
-      </c>
-      <c r="B68" s="1">
-        <v>232320.0</v>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>231060</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>232320</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>79</v>
@@ -1817,12 +1867,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1">
-        <v>233160.0</v>
-      </c>
-      <c r="B69" s="1">
-        <v>234440.0</v>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>233160</v>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>234440</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>80</v>
@@ -1831,12 +1881,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1">
-        <v>234760.0</v>
-      </c>
-      <c r="B70" s="1">
-        <v>235160.0</v>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>234760</v>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>235160</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>81</v>
@@ -1848,12 +1898,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1">
-        <v>236100.0</v>
-      </c>
-      <c r="B71" s="1">
-        <v>237240.0</v>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>236100</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>237240</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>82</v>
@@ -1865,12 +1915,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1">
-        <v>237700.0</v>
-      </c>
-      <c r="B72" s="1">
-        <v>240160.0</v>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>237700</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>240160</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>83</v>
@@ -1879,12 +1929,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1">
-        <v>240460.0</v>
-      </c>
-      <c r="B73" s="1">
-        <v>241100.0</v>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>240460</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>241100</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>84</v>
@@ -1896,12 +1946,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1">
-        <v>243220.0</v>
-      </c>
-      <c r="B74" s="1">
-        <v>244040.0</v>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>243220</v>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>244040</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>85</v>
@@ -1909,16 +1959,16 @@
       <c r="D74" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E74" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1">
-        <v>244040.0</v>
-      </c>
-      <c r="B75" s="1">
-        <v>245840.0</v>
+      <c r="E74" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>244040</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>245840</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>86</v>
@@ -1930,12 +1980,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1">
-        <v>245920.0</v>
-      </c>
-      <c r="B76" s="1">
-        <v>247040.0</v>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>245920</v>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>247040</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>87</v>
@@ -1944,12 +1994,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1">
-        <v>247820.0</v>
-      </c>
-      <c r="B77" s="1">
-        <v>250120.0</v>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>247820</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>250120</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>88</v>
@@ -1958,12 +2008,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1">
-        <v>250120.0</v>
-      </c>
-      <c r="B78" s="1">
-        <v>251120.0</v>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>250120</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>251120</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>89</v>
@@ -1978,12 +2028,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1">
-        <v>254120.0</v>
-      </c>
-      <c r="B79" s="1">
-        <v>256120.0</v>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>254120</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>256120</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>91</v>
@@ -1995,12 +2045,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1">
-        <v>256120.0</v>
-      </c>
-      <c r="B80" s="1">
-        <v>260120.0</v>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>256120</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>260120</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>92</v>
@@ -2009,12 +2059,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1">
-        <v>256120.0</v>
-      </c>
-      <c r="B81" s="1">
-        <v>260120.0</v>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>256120</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>260120</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>93</v>
@@ -2026,12 +2076,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1">
-        <v>260120.0</v>
-      </c>
-      <c r="B82" s="1">
-        <v>262120.0</v>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <v>260120</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>262120</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>85</v>
@@ -2039,16 +2089,16 @@
       <c r="D82" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E82" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1">
-        <v>262120.0</v>
-      </c>
-      <c r="B83" s="1">
-        <v>264120.0</v>
+      <c r="E82" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>262120</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>264120</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>94</v>
@@ -2060,12 +2110,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1">
-        <v>264120.0</v>
-      </c>
-      <c r="B84" s="1">
-        <v>266120.0</v>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>264120</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>266120</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>95</v>
@@ -2074,12 +2124,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1">
-        <v>266120.0</v>
-      </c>
-      <c r="B85" s="1">
-        <v>269120.0</v>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>266120</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>269120</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>96</v>
@@ -2091,12 +2141,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1">
-        <v>269120.0</v>
-      </c>
-      <c r="B86" s="1">
-        <v>270120.0</v>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>269120</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>270120</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>97</v>
@@ -2111,12 +2161,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1">
-        <v>270120.0</v>
-      </c>
-      <c r="B87" s="1">
-        <v>272120.0</v>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>270120</v>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>272120</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>84</v>
@@ -2128,12 +2178,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1">
-        <v>272120.0</v>
-      </c>
-      <c r="B88" s="1">
-        <v>274120.0</v>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <v>272120</v>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>274120</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>85</v>
@@ -2141,16 +2191,16 @@
       <c r="D88" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E88" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1">
-        <v>274120.0</v>
-      </c>
-      <c r="B89" s="1">
-        <v>276120.0</v>
+      <c r="E88" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
+        <v>274120</v>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>276120</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>99</v>
@@ -2162,12 +2212,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1">
-        <v>276120.0</v>
-      </c>
-      <c r="B90" s="1">
-        <v>279120.0</v>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
+        <v>276120</v>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>279120</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>100</v>
@@ -2176,12 +2226,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1">
-        <v>279120.0</v>
-      </c>
-      <c r="B91" s="1">
-        <v>281120.0</v>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="n">
+        <v>279120</v>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>281120</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>101</v>
@@ -2196,12 +2246,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1">
-        <v>281120.0</v>
-      </c>
-      <c r="B92" s="1">
-        <v>282120.0</v>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="n">
+        <v>281120</v>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>282120</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>101</v>
@@ -2213,12 +2263,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1">
-        <v>282120.0</v>
-      </c>
-      <c r="B93" s="1">
-        <v>284120.0</v>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="n">
+        <v>282120</v>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>284120</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>103</v>
@@ -2226,16 +2276,16 @@
       <c r="D93" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E93" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1">
-        <v>286120.0</v>
-      </c>
-      <c r="B94" s="1">
-        <v>288120.0</v>
+      <c r="E93" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="n">
+        <v>286120</v>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>288120</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>104</v>
@@ -2247,12 +2297,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1">
-        <v>288120.0</v>
-      </c>
-      <c r="B95" s="1">
-        <v>300120.0</v>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="n">
+        <v>288120</v>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>300120</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>105</v>
@@ -2261,12 +2311,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1">
-        <v>300120.0</v>
-      </c>
-      <c r="B96" s="1">
-        <v>304120.0</v>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="n">
+        <v>300120</v>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>304120</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>106</v>
@@ -2275,12 +2325,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1">
-        <v>304120.0</v>
-      </c>
-      <c r="B97" s="1">
-        <v>306120.0</v>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="n">
+        <v>304120</v>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>306120</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>107</v>
@@ -2292,12 +2342,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1">
-        <v>306120.0</v>
-      </c>
-      <c r="B98" s="1">
-        <v>308120.0</v>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="n">
+        <v>306120</v>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>308120</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>108</v>
@@ -2306,12 +2356,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1">
-        <v>308120.0</v>
-      </c>
-      <c r="B99" s="1">
-        <v>310120.0</v>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="n">
+        <v>308120</v>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>310120</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>109</v>
@@ -2320,12 +2370,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1">
-        <v>310120.0</v>
-      </c>
-      <c r="B100" s="1">
-        <v>311120.0</v>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="n">
+        <v>310120</v>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>311120</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>110</v>
@@ -2340,12 +2390,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1">
-        <v>311120.0</v>
-      </c>
-      <c r="B101" s="1">
-        <v>312120.0</v>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <v>311120</v>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>312120</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>112</v>
@@ -2357,12 +2407,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1">
-        <v>312120.0</v>
-      </c>
-      <c r="B102" s="1">
-        <v>323120.0</v>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
+        <v>312120</v>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>323120</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>113</v>
@@ -2374,12 +2424,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1">
-        <v>323120.0</v>
-      </c>
-      <c r="B103" s="1">
-        <v>326120.0</v>
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <v>323120</v>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>326120</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>114</v>
@@ -2388,12 +2438,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1">
-        <v>326120.0</v>
-      </c>
-      <c r="B104" s="1">
-        <v>328120.0</v>
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>326120</v>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>328120</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>115</v>
@@ -2405,12 +2455,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1">
-        <v>328120.0</v>
-      </c>
-      <c r="B105" s="1">
-        <v>329120.0</v>
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <v>328120</v>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>329120</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>116</v>
@@ -2419,12 +2469,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1">
-        <v>329120.0</v>
-      </c>
-      <c r="B106" s="1">
-        <v>330120.0</v>
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <v>329120</v>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>330120</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>118</v>
@@ -2432,16 +2482,16 @@
       <c r="D106" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E106" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1">
-        <v>330120.0</v>
-      </c>
-      <c r="B107" s="1">
-        <v>337120.0</v>
+      <c r="E106" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <v>330120</v>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>337120</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>119</v>
@@ -2453,12 +2503,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1">
-        <v>330120.0</v>
-      </c>
-      <c r="B108" s="1">
-        <v>337120.0</v>
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <v>330120</v>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>337120</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>120</v>
@@ -2467,12 +2517,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1">
-        <v>337120.0</v>
-      </c>
-      <c r="B109" s="1">
-        <v>341120.0</v>
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="n">
+        <v>337120</v>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>341120</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>121</v>
@@ -2487,12 +2537,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1">
-        <v>337120.0</v>
-      </c>
-      <c r="B110" s="1">
-        <v>341120.0</v>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="n">
+        <v>337120</v>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>341120</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>123</v>
@@ -2501,12 +2551,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="1">
-        <v>341120.0</v>
-      </c>
-      <c r="B111" s="1">
-        <v>342120.0</v>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
+        <v>341120</v>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>342120</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>124</v>
@@ -2518,12 +2568,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1">
-        <v>342120.0</v>
-      </c>
-      <c r="B112" s="1">
-        <v>344120.0</v>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="n">
+        <v>342120</v>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>344120</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>125</v>
@@ -2532,12 +2582,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="1">
-        <v>344120.0</v>
-      </c>
-      <c r="B113" s="1">
-        <v>345120.0</v>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="n">
+        <v>344120</v>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>345120</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>12</v>
@@ -2549,12 +2599,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="1">
-        <v>345120.0</v>
-      </c>
-      <c r="B114" s="1">
-        <v>347120.0</v>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="n">
+        <v>345120</v>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>347120</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>85</v>
@@ -2562,16 +2612,16 @@
       <c r="D114" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E114" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1">
-        <v>347120.0</v>
-      </c>
-      <c r="B115" s="1">
-        <v>350120.0</v>
+      <c r="E114" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="n">
+        <v>347120</v>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>350120</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>126</v>
@@ -2583,12 +2633,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="1">
-        <v>350120.0</v>
-      </c>
-      <c r="B116" s="1">
-        <v>353120.0</v>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="n">
+        <v>350120</v>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>353120</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>127</v>
@@ -2597,12 +2647,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1">
-        <v>353120.0</v>
-      </c>
-      <c r="B117" s="1">
-        <v>356120.0</v>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="n">
+        <v>353120</v>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>356120</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>128</v>
@@ -2617,12 +2667,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="1">
-        <v>356120.0</v>
-      </c>
-      <c r="B118" s="1">
-        <v>359120.0</v>
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="n">
+        <v>356120</v>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>359120</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>130</v>
@@ -2634,12 +2684,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1">
-        <v>359120.0</v>
-      </c>
-      <c r="B119" s="1">
-        <v>362120.0</v>
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="n">
+        <v>359120</v>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>362120</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>131</v>
@@ -2651,12 +2701,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="1">
-        <v>362120.0</v>
-      </c>
-      <c r="B120" s="1">
-        <v>366120.0</v>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="n">
+        <v>362120</v>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>366120</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>132</v>
@@ -2665,12 +2715,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1">
-        <v>366120.0</v>
-      </c>
-      <c r="B121" s="1">
-        <v>367120.0</v>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="n">
+        <v>366120</v>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>367120</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>116</v>
@@ -2679,12 +2729,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1">
-        <v>367120.0</v>
-      </c>
-      <c r="B122" s="1">
-        <v>369120.0</v>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="n">
+        <v>367120</v>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>369120</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>118</v>
@@ -2692,16 +2742,16 @@
       <c r="D122" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E122" s="1">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1">
-        <v>369120.0</v>
-      </c>
-      <c r="B123" s="1">
-        <v>374120.0</v>
+      <c r="E122" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="n">
+        <v>369120</v>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>374120</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>133</v>
@@ -2716,12 +2766,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="1">
-        <v>374120.0</v>
-      </c>
-      <c r="B124" s="1">
-        <v>377120.0</v>
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="n">
+        <v>374120</v>
+      </c>
+      <c r="B124" s="1" t="n">
+        <v>377120</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>85</v>
@@ -2729,16 +2779,16 @@
       <c r="D124" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E124" s="1">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1">
-        <v>377120.0</v>
-      </c>
-      <c r="B125" s="1">
-        <v>381120.0</v>
+      <c r="E124" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="n">
+        <v>377120</v>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>381120</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>135</v>
@@ -2750,12 +2800,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="1">
-        <v>381120.0</v>
-      </c>
-      <c r="B126" s="1">
-        <v>383120.0</v>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="n">
+        <v>381120</v>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>383120</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>136</v>
@@ -2764,12 +2814,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="1">
-        <v>383120.0</v>
-      </c>
-      <c r="B127" s="1">
-        <v>385120.0</v>
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="n">
+        <v>383120</v>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>385120</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>137</v>
@@ -2781,12 +2831,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1">
-        <v>385120.0</v>
-      </c>
-      <c r="B128" s="1">
-        <v>386120.0</v>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="n">
+        <v>385120</v>
+      </c>
+      <c r="B128" s="1" t="n">
+        <v>386120</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>138</v>
@@ -2801,12 +2851,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="1">
-        <v>386120.0</v>
-      </c>
-      <c r="B129" s="1">
-        <v>389120.0</v>
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="n">
+        <v>386120</v>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>389120</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>140</v>
@@ -2814,16 +2864,16 @@
       <c r="D129" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E129" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1">
-        <v>389120.0</v>
-      </c>
-      <c r="B130" s="1">
-        <v>392120.0</v>
+      <c r="E129" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="n">
+        <v>389120</v>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>392120</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>141</v>
@@ -2835,12 +2885,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="1">
-        <v>392120.0</v>
-      </c>
-      <c r="B131" s="1">
-        <v>394120.0</v>
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="n">
+        <v>392120</v>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>394120</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>142</v>
@@ -2849,12 +2899,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1">
-        <v>394120.0</v>
-      </c>
-      <c r="B132" s="1">
-        <v>396120.0</v>
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="n">
+        <v>394120</v>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>396120</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>133</v>
@@ -2870,12 +2920,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1">
-        <v>398120.0</v>
-      </c>
-      <c r="B133" s="1">
-        <v>400120.0</v>
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
+        <v>398120</v>
+      </c>
+      <c r="B133" s="1" t="n">
+        <v>400120</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>85</v>
@@ -2883,16 +2933,16 @@
       <c r="D133" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E133" s="1">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1">
-        <v>400120.0</v>
-      </c>
-      <c r="B134" s="1">
-        <v>404120.0</v>
+      <c r="E133" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="n">
+        <v>400120</v>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>404120</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>143</v>
@@ -2904,12 +2954,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="1">
-        <v>404120.0</v>
-      </c>
-      <c r="B135" s="1">
-        <v>409120.0</v>
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="n">
+        <v>404120</v>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>409120</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>144</v>
@@ -2924,12 +2974,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="1">
-        <v>409120.0</v>
-      </c>
-      <c r="B136" s="1">
-        <v>416120.0</v>
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="n">
+        <v>409120</v>
+      </c>
+      <c r="B136" s="1" t="n">
+        <v>416120</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>25</v>
@@ -2937,16 +2987,16 @@
       <c r="D136" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E136" s="1">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1">
-        <v>416120.0</v>
-      </c>
-      <c r="B137" s="1">
-        <v>419120.0</v>
+      <c r="E136" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="n">
+        <v>416120</v>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>419120</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>145</v>
@@ -2961,12 +3011,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="1">
-        <v>419120.0</v>
-      </c>
-      <c r="B138" s="1">
-        <v>421120.0</v>
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="n">
+        <v>419120</v>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>421120</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>146</v>
@@ -2974,16 +3024,16 @@
       <c r="D138" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E138" s="1">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1">
-        <v>421120.0</v>
-      </c>
-      <c r="B139" s="1">
-        <v>426120.0</v>
+      <c r="E138" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="n">
+        <v>421120</v>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>426120</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>147</v>
@@ -2998,12 +3048,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="1">
-        <v>426120.0</v>
-      </c>
-      <c r="B140" s="1">
-        <v>429120.0</v>
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="n">
+        <v>426120</v>
+      </c>
+      <c r="B140" s="1" t="n">
+        <v>429120</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>85</v>
@@ -3011,16 +3061,16 @@
       <c r="D140" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E140" s="1">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1">
-        <v>429120.0</v>
-      </c>
-      <c r="B141" s="1">
-        <v>434120.0</v>
+      <c r="E140" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <v>429120</v>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>434120</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>149</v>
@@ -3032,12 +3082,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="1">
-        <v>434120.0</v>
-      </c>
-      <c r="B142" s="1">
-        <v>435120.0</v>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="n">
+        <v>434120</v>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>435120</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>150</v>
@@ -3052,12 +3102,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="1">
-        <v>435120.0</v>
-      </c>
-      <c r="B143" s="1">
-        <v>447120.0</v>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="n">
+        <v>435120</v>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>447120</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>103</v>
@@ -3065,16 +3115,16 @@
       <c r="D143" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E143" s="1">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1">
-        <v>447120.0</v>
-      </c>
-      <c r="B144" s="1">
-        <v>449120.0</v>
+      <c r="E143" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="n">
+        <v>447120</v>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>449120</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>152</v>
@@ -3086,12 +3136,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="1">
-        <v>449120.0</v>
-      </c>
-      <c r="B145" s="1">
-        <v>450120.0</v>
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="n">
+        <v>449120</v>
+      </c>
+      <c r="B145" s="1" t="n">
+        <v>450120</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>153</v>
@@ -3100,12 +3150,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="1">
-        <v>450120.0</v>
-      </c>
-      <c r="B146" s="1">
-        <v>451120.0</v>
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="n">
+        <v>450120</v>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>451120</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>84</v>
@@ -3114,12 +3164,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="1">
-        <v>451120.0</v>
-      </c>
-      <c r="B147" s="1">
-        <v>456120.0</v>
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="n">
+        <v>451120</v>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>456120</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>154</v>
@@ -3134,12 +3184,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="1">
-        <v>460120.0</v>
-      </c>
-      <c r="B148" s="1">
-        <v>462120.0</v>
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="n">
+        <v>460120</v>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>462120</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>156</v>
@@ -3147,16 +3197,16 @@
       <c r="D148" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E148" s="1">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1">
-        <v>464120.0</v>
-      </c>
-      <c r="B149" s="1">
-        <v>466120.0</v>
+      <c r="E148" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="n">
+        <v>464120</v>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>466120</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>157</v>
@@ -3168,12 +3218,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="1">
-        <v>466120.0</v>
-      </c>
-      <c r="B150" s="1">
-        <v>468120.0</v>
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="n">
+        <v>466120</v>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>468120</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>158</v>
@@ -3185,12 +3235,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="1">
-        <v>468120.0</v>
-      </c>
-      <c r="B151" s="1">
-        <v>472120.0</v>
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="n">
+        <v>468120</v>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>472120</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>159</v>
@@ -3199,12 +3249,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="1">
-        <v>472120.0</v>
-      </c>
-      <c r="B152" s="1">
-        <v>474120.0</v>
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="n">
+        <v>472120</v>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>474120</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>160</v>
@@ -3216,12 +3266,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="1">
-        <v>474120.0</v>
-      </c>
-      <c r="B153" s="1">
-        <v>476120.0</v>
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="n">
+        <v>474120</v>
+      </c>
+      <c r="B153" s="1" t="n">
+        <v>476120</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>133</v>
@@ -3236,12 +3286,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="1">
-        <v>476120.0</v>
-      </c>
-      <c r="B154" s="1">
-        <v>479120.0</v>
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="n">
+        <v>476120</v>
+      </c>
+      <c r="B154" s="1" t="n">
+        <v>479120</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>161</v>
@@ -3250,12 +3300,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="1">
-        <v>479120.0</v>
-      </c>
-      <c r="B155" s="1">
-        <v>481120.0</v>
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="n">
+        <v>479120</v>
+      </c>
+      <c r="B155" s="1" t="n">
+        <v>481120</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>162</v>
@@ -3263,16 +3313,16 @@
       <c r="D155" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E155" s="1">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1">
-        <v>481120.0</v>
-      </c>
-      <c r="B156" s="1">
-        <v>482120.0</v>
+      <c r="E155" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="n">
+        <v>481120</v>
+      </c>
+      <c r="B156" s="1" t="n">
+        <v>482120</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>163</v>
@@ -3284,12 +3334,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="1">
-        <v>482120.0</v>
-      </c>
-      <c r="B157" s="1">
-        <v>485120.0</v>
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="n">
+        <v>482120</v>
+      </c>
+      <c r="B157" s="1" t="n">
+        <v>485120</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>164</v>
@@ -3298,12 +3348,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="1">
-        <v>485120.0</v>
-      </c>
-      <c r="B158" s="1">
-        <v>490120.0</v>
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="n">
+        <v>485120</v>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>490120</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>165</v>
@@ -3314,16 +3364,19 @@
       <c r="F158" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1">
-        <v>490120.0</v>
-      </c>
-      <c r="B159" s="1">
-        <v>494120.0</v>
+      <c r="H158" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="n">
+        <v>490120</v>
+      </c>
+      <c r="B159" s="1" t="n">
+        <v>494120</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>9</v>
@@ -3332,15 +3385,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="1">
-        <v>494120.0</v>
-      </c>
-      <c r="B160" s="1">
-        <v>498120.0</v>
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="n">
+        <v>494120</v>
+      </c>
+      <c r="B160" s="1" t="n">
+        <v>498120</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>21</v>
@@ -3349,12 +3402,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="1">
-        <v>498120.0</v>
-      </c>
-      <c r="B161" s="1">
-        <v>502120.0</v>
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="n">
+        <v>498120</v>
+      </c>
+      <c r="B161" s="1" t="n">
+        <v>502120</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>71</v>
@@ -3363,15 +3416,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="1">
-        <v>502120.0</v>
-      </c>
-      <c r="B162" s="1">
-        <v>507120.0</v>
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="n">
+        <v>502120</v>
+      </c>
+      <c r="B162" s="1" t="n">
+        <v>507120</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>21</v>
@@ -3380,15 +3433,15 @@
         <v>69</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1">
-        <v>507120.0</v>
-      </c>
-      <c r="B163" s="1">
-        <v>510120.0</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="n">
+        <v>507120</v>
+      </c>
+      <c r="B163" s="1" t="n">
+        <v>510120</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>156</v>
@@ -3396,30 +3449,30 @@
       <c r="D163" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E163" s="1">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1">
-        <v>510120.0</v>
-      </c>
-      <c r="B164" s="1">
-        <v>512120.0</v>
+      <c r="E163" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="n">
+        <v>510120</v>
+      </c>
+      <c r="B164" s="1" t="n">
+        <v>512120</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="1">
-        <v>512120.0</v>
-      </c>
-      <c r="B165" s="1">
-        <v>516120.0</v>
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="n">
+        <v>512120</v>
+      </c>
+      <c r="B165" s="1" t="n">
+        <v>516120</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>155</v>
@@ -3434,32 +3487,32 @@
         <v>155</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="1">
-        <v>516120.0</v>
-      </c>
-      <c r="B166" s="1">
-        <v>518120.0</v>
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="n">
+        <v>516120</v>
+      </c>
+      <c r="B166" s="1" t="n">
+        <v>518120</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E166" s="1">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1">
-        <v>518120.0</v>
-      </c>
-      <c r="B167" s="1">
-        <v>522120.0</v>
+      <c r="E166" s="1" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="n">
+        <v>518120</v>
+      </c>
+      <c r="B167" s="1" t="n">
+        <v>522120</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>9</v>
@@ -3468,26 +3521,26 @@
         <v>76</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="1">
-        <v>522120.0</v>
-      </c>
-      <c r="B168" s="1">
-        <v>524120.0</v>
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="n">
+        <v>522120</v>
+      </c>
+      <c r="B168" s="1" t="n">
+        <v>524120</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="1">
-        <v>524120.0</v>
-      </c>
-      <c r="B169" s="1">
-        <v>525120.0</v>
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="n">
+        <v>524120</v>
+      </c>
+      <c r="B169" s="1" t="n">
+        <v>525120</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>137</v>
@@ -3499,15 +3552,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="1">
-        <v>525120.0</v>
-      </c>
-      <c r="B170" s="1">
-        <v>527120.0</v>
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="n">
+        <v>525120</v>
+      </c>
+      <c r="B170" s="1" t="n">
+        <v>527120</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>21</v>
@@ -3519,12 +3572,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="1">
-        <v>527120.0</v>
-      </c>
-      <c r="B171" s="1">
-        <v>528120.0</v>
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="n">
+        <v>527120</v>
+      </c>
+      <c r="B171" s="1" t="n">
+        <v>528120</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>161</v>
@@ -3532,19 +3585,19 @@
       <c r="D171" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E171" s="1">
-        <v>19.0</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1">
-        <v>528120.0</v>
-      </c>
-      <c r="B172" s="1">
-        <v>533120.0</v>
+      <c r="E171" s="1" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="n">
+        <v>528120</v>
+      </c>
+      <c r="B172" s="1" t="n">
+        <v>533120</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>21</v>
@@ -3553,12 +3606,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="1">
-        <v>533120.0</v>
-      </c>
-      <c r="B173" s="1">
-        <v>538120.0</v>
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="n">
+        <v>533120</v>
+      </c>
+      <c r="B173" s="1" t="n">
+        <v>538120</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>133</v>
@@ -3569,16 +3622,19 @@
       <c r="F173" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1">
-        <v>538120.0</v>
-      </c>
-      <c r="B174" s="1">
-        <v>540120.0</v>
+      <c r="H173" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="n">
+        <v>538120</v>
+      </c>
+      <c r="B174" s="1" t="n">
+        <v>540120</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>21</v>
@@ -3587,15 +3643,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="1">
-        <v>540120.0</v>
-      </c>
-      <c r="B175" s="1">
-        <v>541120.0</v>
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="n">
+        <v>540120</v>
+      </c>
+      <c r="B175" s="1" t="n">
+        <v>541120</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>9</v>
@@ -3604,15 +3660,15 @@
         <v>69</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1">
-        <v>541120.0</v>
-      </c>
-      <c r="B176" s="1">
-        <v>545120.0</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="n">
+        <v>541120</v>
+      </c>
+      <c r="B176" s="1" t="n">
+        <v>545120</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>103</v>
@@ -3621,91 +3677,97 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="1">
-        <v>545120.0</v>
-      </c>
-      <c r="B177" s="1">
-        <v>549120.0</v>
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="n">
+        <v>545120</v>
+      </c>
+      <c r="B177" s="1" t="n">
+        <v>549120</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="1">
-        <v>549120.0</v>
-      </c>
-      <c r="B178" s="1">
-        <v>551120.0</v>
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="n">
+        <v>549120</v>
+      </c>
+      <c r="B178" s="1" t="n">
+        <v>551120</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="1">
-        <v>551120.0</v>
-      </c>
-      <c r="B179" s="1">
-        <v>555120.0</v>
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="n">
+        <v>551120</v>
+      </c>
+      <c r="B179" s="1" t="n">
+        <v>555120</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="1">
-        <v>555120.0</v>
-      </c>
-      <c r="B180" s="1">
-        <v>559120.0</v>
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="n">
+        <v>555120</v>
+      </c>
+      <c r="B180" s="1" t="n">
+        <v>559120</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="1">
-        <v>559120.0</v>
-      </c>
-      <c r="B181" s="1">
-        <v>561120.0</v>
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="n">
+        <v>559120</v>
+      </c>
+      <c r="B181" s="1" t="n">
+        <v>561120</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="1">
-        <v>561120.0</v>
-      </c>
-      <c r="B182" s="1">
-        <v>563120.0</v>
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="n">
+        <v>561120</v>
+      </c>
+      <c r="B182" s="1" t="n">
+        <v>563120</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/data/expt_2/raw_transcripts/game81.xlsx
+++ b/data/expt_2/raw_transcripts/game81.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="189">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">description</t>
   </si>
   <si>
+    <t xml:space="preserve">on_topic</t>
+  </si>
+  <si>
     <t xml:space="preserve">Next to the camera.</t>
   </si>
   <si>
@@ -242,6 +245,9 @@
   </si>
   <si>
     <t xml:space="preserve">Apple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, so do you want to guess that, [id150]?</t>
@@ -869,12 +875,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H182"/>
+  <dimension ref="A1:I182"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D79" activeCellId="0" sqref="D79"/>
+      <selection pane="bottomLeft" activeCell="F164" activeCellId="0" sqref="F164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -911,6 +917,9 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -920,10 +929,10 @@
         <v>2000</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -934,10 +943,10 @@
         <v>6000</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -948,10 +957,10 @@
         <v>7000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -962,10 +971,10 @@
         <v>10000</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -976,10 +985,10 @@
         <v>12000</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -990,10 +999,10 @@
         <v>16000</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1004,10 +1013,10 @@
         <v>21000</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1018,10 +1027,10 @@
         <v>25000</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1032,10 +1041,10 @@
         <v>27000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1046,10 +1055,10 @@
         <v>30000</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1060,10 +1069,10 @@
         <v>32000</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1074,10 +1083,10 @@
         <v>34000</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1088,10 +1097,10 @@
         <v>35000</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1102,10 +1111,10 @@
         <v>37000</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1116,10 +1125,10 @@
         <v>41000</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1130,10 +1139,10 @@
         <v>44000</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1144,10 +1153,10 @@
         <v>48000</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1158,10 +1167,10 @@
         <v>50000</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1172,10 +1181,10 @@
         <v>52000</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1186,10 +1195,10 @@
         <v>53000</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1200,10 +1209,10 @@
         <v>54000</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1214,10 +1223,10 @@
         <v>61000</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1228,10 +1237,10 @@
         <v>68680</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1242,10 +1251,10 @@
         <v>74680</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1256,10 +1265,10 @@
         <v>84840</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1270,10 +1279,10 @@
         <v>102840</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1284,10 +1293,10 @@
         <v>107840</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1298,10 +1307,10 @@
         <v>113840</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1312,10 +1321,10 @@
         <v>121580</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1326,10 +1335,10 @@
         <v>126220</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1340,10 +1349,10 @@
         <v>129580</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1354,10 +1363,10 @@
         <v>133160</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1368,10 +1377,10 @@
         <v>137460</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1382,10 +1391,10 @@
         <v>137460</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1396,10 +1405,10 @@
         <v>141760</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1410,10 +1419,10 @@
         <v>145800</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1424,10 +1433,10 @@
         <v>147900</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1438,10 +1447,10 @@
         <v>148900</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1452,10 +1461,10 @@
         <v>151420</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1466,10 +1475,10 @@
         <v>153140</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1480,10 +1489,10 @@
         <v>155640</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1494,10 +1503,10 @@
         <v>158340</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1508,10 +1517,10 @@
         <v>161220</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1522,10 +1531,10 @@
         <v>164220</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1536,10 +1545,10 @@
         <v>171220</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1550,10 +1559,10 @@
         <v>174220</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1564,10 +1573,10 @@
         <v>177220</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1578,10 +1587,10 @@
         <v>179220</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1592,10 +1601,10 @@
         <v>183220</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1606,10 +1615,10 @@
         <v>187220</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1620,10 +1629,10 @@
         <v>191220</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1634,10 +1643,10 @@
         <v>193220</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1648,10 +1657,10 @@
         <v>195220</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1662,10 +1671,10 @@
         <v>197220</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1676,10 +1685,10 @@
         <v>200220</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1690,10 +1699,10 @@
         <v>203220</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1704,10 +1713,10 @@
         <v>208220</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1718,10 +1727,10 @@
         <v>212220</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E59" s="2" t="n">
         <v>0</v>
@@ -1735,13 +1744,13 @@
         <v>213220</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1752,10 +1761,10 @@
         <v>216220</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1766,10 +1775,10 @@
         <v>219220</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1780,16 +1789,19 @@
         <v>221220</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1800,10 +1812,10 @@
         <v>222720</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1814,13 +1826,16 @@
         <v>223320</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1831,13 +1846,16 @@
         <v>227200</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1848,10 +1866,10 @@
         <v>228680</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1862,13 +1880,16 @@
         <v>232320</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1879,10 +1900,10 @@
         <v>234440</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1893,13 +1914,16 @@
         <v>235160</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1910,13 +1934,16 @@
         <v>237240</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1927,10 +1954,10 @@
         <v>240160</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1941,13 +1968,13 @@
         <v>241100</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1958,10 +1985,10 @@
         <v>244040</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E74" s="2" t="n">
         <v>1</v>
@@ -1975,13 +2002,13 @@
         <v>245840</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1992,10 +2019,10 @@
         <v>247040</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2006,10 +2033,10 @@
         <v>250120</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2020,16 +2047,19 @@
         <v>251120</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2040,13 +2070,13 @@
         <v>256120</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2057,10 +2087,10 @@
         <v>260120</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2071,13 +2101,16 @@
         <v>260120</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2088,10 +2121,10 @@
         <v>262120</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E82" s="2" t="n">
         <v>2</v>
@@ -2105,13 +2138,13 @@
         <v>264120</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2122,10 +2155,10 @@
         <v>266120</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2136,13 +2169,16 @@
         <v>269120</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2153,16 +2189,19 @@
         <v>270120</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2173,13 +2212,16 @@
         <v>272120</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2190,10 +2232,10 @@
         <v>274120</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E88" s="2" t="n">
         <v>3</v>
@@ -2207,13 +2249,13 @@
         <v>276120</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2224,10 +2266,10 @@
         <v>279120</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2238,16 +2280,19 @@
         <v>281120</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2258,13 +2303,16 @@
         <v>282120</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2275,10 +2323,10 @@
         <v>284120</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E93" s="2" t="n">
         <v>4</v>
@@ -2292,13 +2340,13 @@
         <v>288120</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2309,10 +2357,10 @@
         <v>300120</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2323,10 +2371,10 @@
         <v>304120</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2337,13 +2385,16 @@
         <v>306120</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2354,10 +2405,10 @@
         <v>308120</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2368,10 +2419,10 @@
         <v>310120</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2382,16 +2433,19 @@
         <v>311120</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2402,13 +2456,16 @@
         <v>312120</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2419,13 +2476,16 @@
         <v>323120</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2436,10 +2496,10 @@
         <v>326120</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2450,13 +2510,16 @@
         <v>328120</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2467,10 +2530,10 @@
         <v>329120</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2481,10 +2544,10 @@
         <v>330120</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E106" s="2" t="n">
         <v>5</v>
@@ -2498,13 +2561,16 @@
         <v>337120</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2515,10 +2581,10 @@
         <v>337120</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2529,16 +2595,19 @@
         <v>341120</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2549,10 +2618,10 @@
         <v>341120</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2563,13 +2632,16 @@
         <v>342120</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2580,10 +2652,10 @@
         <v>344120</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2594,13 +2666,13 @@
         <v>345120</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2611,10 +2683,10 @@
         <v>347120</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E114" s="2" t="n">
         <v>6</v>
@@ -2628,13 +2700,13 @@
         <v>350120</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2645,10 +2717,10 @@
         <v>353120</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2659,16 +2731,19 @@
         <v>356120</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2679,13 +2754,16 @@
         <v>359120</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2696,13 +2774,16 @@
         <v>362120</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2713,10 +2794,10 @@
         <v>366120</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2727,10 +2808,10 @@
         <v>367120</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2741,10 +2822,10 @@
         <v>369120</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E122" s="2" t="n">
         <v>7</v>
@@ -2758,16 +2839,19 @@
         <v>374120</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2778,10 +2862,10 @@
         <v>377120</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E124" s="2" t="n">
         <v>8</v>
@@ -2795,13 +2879,13 @@
         <v>381120</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2812,10 +2896,10 @@
         <v>383120</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2826,13 +2910,16 @@
         <v>385120</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2843,16 +2930,19 @@
         <v>386120</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2863,10 +2953,10 @@
         <v>389120</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E129" s="2" t="n">
         <v>9</v>
@@ -2880,13 +2970,16 @@
         <v>392120</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2897,10 +2990,10 @@
         <v>394120</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2911,17 +3004,20 @@
         <v>396120</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2932,10 +3028,10 @@
         <v>400120</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E133" s="2" t="n">
         <v>10</v>
@@ -2949,13 +3045,13 @@
         <v>404120</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2966,16 +3062,19 @@
         <v>409120</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2986,10 +3085,10 @@
         <v>416120</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E136" s="2" t="n">
         <v>11</v>
@@ -3003,16 +3102,19 @@
         <v>419120</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3023,10 +3125,10 @@
         <v>421120</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E138" s="2" t="n">
         <v>12</v>
@@ -3040,16 +3142,19 @@
         <v>426120</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3060,10 +3165,10 @@
         <v>429120</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E140" s="2" t="n">
         <v>13</v>
@@ -3077,13 +3182,13 @@
         <v>434120</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3094,16 +3199,19 @@
         <v>435120</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3114,10 +3222,10 @@
         <v>447120</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E143" s="2" t="n">
         <v>14</v>
@@ -3131,13 +3239,13 @@
         <v>449120</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3148,10 +3256,10 @@
         <v>450120</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3162,10 +3270,10 @@
         <v>451120</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3176,16 +3284,19 @@
         <v>456120</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3196,10 +3307,10 @@
         <v>462120</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E148" s="2" t="n">
         <v>15</v>
@@ -3213,13 +3324,13 @@
         <v>466120</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3230,13 +3341,13 @@
         <v>468120</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3247,10 +3358,10 @@
         <v>472120</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3261,13 +3372,16 @@
         <v>474120</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3278,16 +3392,19 @@
         <v>476120</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3298,10 +3415,10 @@
         <v>479120</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3312,10 +3429,10 @@
         <v>481120</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E155" s="2" t="n">
         <v>16</v>
@@ -3329,13 +3446,13 @@
         <v>482120</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3346,10 +3463,10 @@
         <v>485120</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3360,16 +3477,19 @@
         <v>490120</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3380,13 +3500,16 @@
         <v>494120</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3397,13 +3520,16 @@
         <v>498120</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3414,10 +3540,10 @@
         <v>502120</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3428,16 +3554,19 @@
         <v>507120</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3448,10 +3577,10 @@
         <v>510120</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E163" s="2" t="n">
         <v>17</v>
@@ -3465,10 +3594,13 @@
         <v>512120</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3479,16 +3611,19 @@
         <v>516120</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3499,10 +3634,10 @@
         <v>518120</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E166" s="2" t="n">
         <v>18</v>
@@ -3516,13 +3651,13 @@
         <v>522120</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3533,10 +3668,10 @@
         <v>524120</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3547,13 +3682,16 @@
         <v>525120</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3564,16 +3702,19 @@
         <v>527120</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3584,10 +3725,10 @@
         <v>528120</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E171" s="2" t="n">
         <v>19</v>
@@ -3601,13 +3742,13 @@
         <v>533120</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3618,16 +3759,19 @@
         <v>538120</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3638,13 +3782,16 @@
         <v>540120</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3655,16 +3802,19 @@
         <v>541120</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
+      </c>
+      <c r="I175" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3675,10 +3825,10 @@
         <v>545120</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3689,10 +3839,10 @@
         <v>549120</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3703,10 +3853,10 @@
         <v>551120</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3717,10 +3867,10 @@
         <v>555120</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3731,10 +3881,10 @@
         <v>559120</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3745,10 +3895,13 @@
         <v>561120</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3759,10 +3912,10 @@
         <v>563120</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
